--- a/projeto teste/docs/cronograma.xlsx
+++ b/projeto teste/docs/cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\des\Desktop\senas\Senai\3 semestre\projeto teste\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\des\Desktop\AgroTech\projeto teste\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Prazos</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Crud Serviço</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>criptografia</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -425,12 +431,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,6 +449,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,6 +499,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -768,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP33"/>
+  <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL21" sqref="AL21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,271 +798,271 @@
     <col min="5" max="34" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-    </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-    </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-    </row>
-    <row r="7" spans="1:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+    </row>
+    <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+    </row>
+    <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+    </row>
+    <row r="4" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+    </row>
+    <row r="7" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="37" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="39"/>
-    </row>
-    <row r="8" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="43"/>
+    </row>
+    <row r="8" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="6">
         <v>16</v>
       </c>
@@ -1134,15 +1153,15 @@
       <c r="AH8" s="6">
         <v>17</v>
       </c>
-      <c r="AL8" s="31"/>
-    </row>
-    <row r="9" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="AL8" s="29"/>
+    </row>
+    <row r="9" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="7"/>
@@ -1174,13 +1193,13 @@
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
     </row>
-    <row r="10" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1212,17 +1231,17 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1250,19 +1269,19 @@
       <c r="AG11" s="18"/>
       <c r="AH11" s="18"/>
     </row>
-    <row r="12" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
@@ -1288,99 +1307,101 @@
       <c r="AG12" s="18"/>
       <c r="AH12" s="18"/>
     </row>
-    <row r="13" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-    </row>
-    <row r="14" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AJ13" s="55"/>
+    </row>
+    <row r="14" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-    </row>
-    <row r="15" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AR14" s="22"/>
+    </row>
+    <row r="15" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -1402,25 +1423,25 @@
       <c r="AG15" s="20"/>
       <c r="AH15" s="20"/>
     </row>
-    <row r="16" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -1439,91 +1460,94 @@
       <c r="AF16" s="20"/>
       <c r="AG16" s="20"/>
       <c r="AH16" s="20"/>
-      <c r="AP16" s="23"/>
-    </row>
-    <row r="17" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="AP16" s="22"/>
+    </row>
+    <row r="17" spans="1:42" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AJ17" s="22"/>
+      <c r="AP17" s="22"/>
+    </row>
+    <row r="18" spans="1:42" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AP18" s="22"/>
+    </row>
+    <row r="19" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-    </row>
-    <row r="18" spans="1:40" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-    </row>
-    <row r="19" spans="1:40" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -1531,13 +1555,13 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="26"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="24"/>
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
@@ -1555,129 +1579,128 @@
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
     </row>
-    <row r="20" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:42" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+    </row>
+    <row r="21" spans="1:42" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+    </row>
+    <row r="22" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="17"/>
-      <c r="AN20" s="23"/>
-    </row>
-    <row r="21" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="17"/>
+      <c r="AN22" s="22"/>
+    </row>
+    <row r="23" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AL21" s="23"/>
-    </row>
-    <row r="22" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-    </row>
-    <row r="23" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -1690,70 +1713,71 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
       <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
-    </row>
-    <row r="24" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="11"/>
-    </row>
-    <row r="25" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="46"/>
+      <c r="AL23" s="22"/>
+    </row>
+    <row r="24" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+    </row>
+    <row r="25" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -1772,11 +1796,11 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
@@ -1785,161 +1809,239 @@
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
     </row>
-    <row r="26" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+    <row r="26" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="11"/>
+    </row>
+    <row r="27" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+    </row>
+    <row r="28" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-    </row>
-    <row r="27" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+    </row>
+    <row r="29" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-    </row>
-    <row r="28" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E13:AH13"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E1:AH6"/>
     <mergeCell ref="E7:Q7"/>
     <mergeCell ref="R7:AH7"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D8"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/projeto teste/docs/cronograma.xlsx
+++ b/projeto teste/docs/cronograma.xlsx
@@ -461,6 +461,31 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,34 +501,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -790,7 +790,7 @@
   <dimension ref="A1:AR35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,270 +799,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
     </row>
     <row r="4" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
     </row>
     <row r="7" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="41" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="41" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="43"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="54"/>
     </row>
     <row r="8" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="6">
         <v>16</v>
       </c>
@@ -1156,12 +1156,12 @@
       <c r="AL8" s="29"/>
     </row>
     <row r="9" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="7"/>
@@ -1194,12 +1194,12 @@
       <c r="AH9" s="7"/>
     </row>
     <row r="10" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1232,12 +1232,12 @@
       <c r="AH10" s="14"/>
     </row>
     <row r="11" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="18"/>
       <c r="F11" s="25"/>
       <c r="G11" s="23"/>
@@ -1270,12 +1270,12 @@
       <c r="AH11" s="18"/>
     </row>
     <row r="12" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="18"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -1308,51 +1308,51 @@
       <c r="AH12" s="18"/>
     </row>
     <row r="13" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AJ13" s="55"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AJ13" s="41"/>
     </row>
     <row r="14" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -1386,12 +1386,12 @@
       <c r="AR14" s="22"/>
     </row>
     <row r="15" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="50"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -1424,12 +1424,12 @@
       <c r="AH15" s="20"/>
     </row>
     <row r="16" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="50"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -1438,7 +1438,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="53"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="24"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
@@ -1463,12 +1463,12 @@
       <c r="AP16" s="22"/>
     </row>
     <row r="17" spans="1:42" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -1503,12 +1503,12 @@
       <c r="AP17" s="22"/>
     </row>
     <row r="18" spans="1:42" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -1542,12 +1542,12 @@
       <c r="AP18" s="22"/>
     </row>
     <row r="19" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -1580,12 +1580,12 @@
       <c r="AH19" s="18"/>
     </row>
     <row r="20" spans="1:42" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1598,7 +1598,7 @@
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
-      <c r="Q20" s="54"/>
+      <c r="Q20" s="40"/>
       <c r="R20" s="24"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
@@ -1618,12 +1618,12 @@
       <c r="AH20" s="18"/>
     </row>
     <row r="21" spans="1:42" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1636,7 +1636,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="54"/>
+      <c r="Q21" s="40"/>
       <c r="R21" s="24"/>
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
@@ -1656,12 +1656,12 @@
       <c r="AH21" s="18"/>
     </row>
     <row r="22" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="16"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1695,12 +1695,12 @@
       <c r="AN22" s="22"/>
     </row>
     <row r="23" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -1734,12 +1734,12 @@
       <c r="AL23" s="22"/>
     </row>
     <row r="24" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -1772,12 +1772,12 @@
       <c r="AH24" s="19"/>
     </row>
     <row r="25" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -1810,12 +1810,12 @@
       <c r="AH25" s="19"/>
     </row>
     <row r="26" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1848,12 +1848,12 @@
       <c r="AH26" s="11"/>
     </row>
     <row r="27" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -1886,12 +1886,12 @@
       <c r="AH27" s="19"/>
     </row>
     <row r="28" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -1924,12 +1924,12 @@
       <c r="AH28" s="4"/>
     </row>
     <row r="29" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1962,12 +1962,12 @@
       <c r="AH29" s="3"/>
     </row>
     <row r="30" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2000,34 +2000,19 @@
       <c r="AH30" s="3"/>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E13:AH13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="E1:AH6"/>
     <mergeCell ref="E7:Q7"/>
     <mergeCell ref="R7:AH7"/>
@@ -2042,6 +2027,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E13:AH13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
